--- a/data/Clinical_MRI.xlsx
+++ b/data/Clinical_MRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sebastiano/SLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2967943C-83F4-3D46-B421-DAB41FE3FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904AE58F-F8B8-474A-8585-3702D073CBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AKG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22007,7 +22007,7 @@
         <v>987</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="AF7" s="4">
         <v>0</v>
@@ -68535,7 +68535,7 @@
         <v>994</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="AF23" s="4">
         <v>1</v>
